--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1205.630750.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1205.630750.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46492EC5-2622-47FB-8AE0-4725CE46B3D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6B01111-D64B-42F2-B35B-75F641682816}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-18T072358.709" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-02-24T070346.228" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>

--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1205.630750.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1205.630750.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6B01111-D64B-42F2-B35B-75F641682816}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7567A30F-2693-4615-80FA-99933490BBB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-24T070346.228" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-03-03T070849.665" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
